--- a/biology/Botanique/Cyathe_(champignon)/Cyathe_(champignon).xlsx
+++ b/biology/Botanique/Cyathe_(champignon)/Cyathe_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyathus
 Le Cyathe, Cyathus est un genre de champignons de la famille des Agaricaceae (ou des Nidulariaceae selon les classifications). Leur ressemblance à de petits nids d'oiseaux remplis d’œufs est importante. Ce sont en fait des structures de reproduction contenant des spores. Les « œufs », ou péridioles, sont fermement attachés à la surface interne de l'organe de fructification par un cordon élastique nommé funicule. Les 45 espèces sont largement distribuées à travers le monde et certaines se retrouvent dans la plupart des pays, alors que d'autres existent seulement dans un ou deux endroits. Cyathus stercoreus est considéré comme en danger dans un certain nombre de pays européens. Certaines espèces de Cyathus ressemblent également à des tasses éclatées, car les gouttes de pluie en tombant peuvent frapper les péridioles et les éjecter hors de la tasse. Les surfaces interne et externe de cette coupe peuvent être striées longitudinalement, ce qui est un exemple d'une caractéristique taxinomique qui sert traditionnellement à distinguer les espèces.
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre de champignons a été évoqué pour la première fois par le botaniste flamand Carolus Clusius dans Rariorum plantarum historia (1601). Au cours des siècles suivants, ces champignons ont fait l'objet de controverse quant à savoir si les péridioles étaient les graines, et le mécanisme par lequel ils étaient dispersés dans la nature. Par exemple, le botaniste français Jean-Jacques Paulet, dans son ouvrage Traité des champignons (1790-3), a proposé la notion erronée que les péridioles étaient éjectés par une sorte de ressort. [2] Le nom de genre a été créé en 1768 par le scientifique suisse Albrecht von Haller, le nom générique Cyathus est latin, mais à l'origine dérivé du mot grec antique κύαθος, qui signifie «tasse» [3] la structure et la biologie du genre ont été mieux connus au milieu du xixe. siècle, à commencer par l'apparence d'un article publié en 1842 par J. Schmitz, [4] et deux ans plus tard, une monographie des frères Louis René et Charles Tulasne. [5] Ces travaux ont été approfondis et précisés, et ont été très appréciés par les chercheurs plus tard. [2] [6] [7] Par la suite, des monographies ont été rédigées en 1902 par Violette S. White (espèces américaines) [6], Curtis Gates Lloyd en 1906 [7], Gordon Herriot Cunningham en 1924 (espèces néo-zélandaises) [8], et Harold J. Brodie en 1975 [9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre de champignons a été évoqué pour la première fois par le botaniste flamand Carolus Clusius dans Rariorum plantarum historia (1601). Au cours des siècles suivants, ces champignons ont fait l'objet de controverse quant à savoir si les péridioles étaient les graines, et le mécanisme par lequel ils étaient dispersés dans la nature. Par exemple, le botaniste français Jean-Jacques Paulet, dans son ouvrage Traité des champignons (1790-3), a proposé la notion erronée que les péridioles étaient éjectés par une sorte de ressort.  Le nom de genre a été créé en 1768 par le scientifique suisse Albrecht von Haller, le nom générique Cyathus est latin, mais à l'origine dérivé du mot grec antique κύαθος, qui signifie «tasse»  la structure et la biologie du genre ont été mieux connus au milieu du xixe. siècle, à commencer par l'apparence d'un article publié en 1842 par J. Schmitz,  et deux ans plus tard, une monographie des frères Louis René et Charles Tulasne.  Ces travaux ont été approfondis et précisés, et ont été très appréciés par les chercheurs plus tard.    Par la suite, des monographies ont été rédigées en 1902 par Violette S. White (espèces américaines) , Curtis Gates Lloyd en 1906 , Gordon Herriot Cunningham en 1924 (espèces néo-zélandaises) , et Harold J. Brodie en 1975 .
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,7 +586,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cyathus africanus
